--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +527,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +543,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +619,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,60 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>4,05%</t>
         </is>
@@ -724,69 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,91; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,87</t>
+          <t>1,88; 6,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,69</t>
+          <t>1,26; 4,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,55</t>
+          <t>5,3; 12,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>9,64; 17,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 12,6</t>
+          <t>4,09; 7,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,88</t>
+          <t>4,35; 8,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,72</t>
+          <t>6,47; 11,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,27; 8,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 11,07</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 5,47</t>
+          <t>2,91; 5,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,60 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>9,11%</t>
         </is>
@@ -864,69 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>3,1; 7,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,58</t>
+          <t>0,35; 2,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,16</t>
+          <t>3,27; 7,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,65</t>
+          <t>6,6; 11,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,7; 8,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,82</t>
+          <t>11,01; 15,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,75</t>
+          <t>5,48; 8,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,9</t>
+          <t>2,2; 4,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 8,96</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 4,44</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 10,75</t>
+          <t>7,59; 10,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,60 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>13,59%</t>
         </is>
@@ -1004,62 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,24; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>0,74; 3,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,17</t>
+          <t>8,23; 14,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,35; 14,32</t>
+          <t>5,37; 11,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>3,0; 8,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,56</t>
+          <t>13,22; 19,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,07</t>
+          <t>3,94; 7,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 19,39</t>
+          <t>2,14; 5,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 7,71</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 5,23</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>11,68; 15,88</t>
+          <t>11,8; 15,78</t>
         </is>
       </c>
     </row>
@@ -1076,60 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>12,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,86%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>11,16%</t>
         </is>
@@ -1144,62 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,27; 6,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,57</t>
+          <t>2,83; 7,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,28</t>
+          <t>6,58; 13,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,44</t>
+          <t>10,51; 17,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>9,34; 16,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,09</t>
+          <t>7,18; 15,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,6</t>
+          <t>6,81; 10,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 15,67</t>
+          <t>6,66; 11,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 11,01</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 11,12</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>8,12; 13,39</t>
+          <t>8,19; 13,55</t>
         </is>
       </c>
     </row>
@@ -1216,60 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>12,93%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>9,16%</t>
         </is>
@@ -1284,69 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>4,7; 12,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 12,56</t>
+          <t>2,24; 8,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,01</t>
+          <t>3,85; 8,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,6</t>
+          <t>12,77; 23,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>6,46; 14,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 23,4</t>
+          <t>5,73; 15,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,54; 15,01</t>
+          <t>9,54; 16,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 15,33</t>
+          <t>5,09; 9,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 16,26</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 9,91</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 11,86</t>
+          <t>6,12; 11,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,60 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>19,95%</t>
         </is>
@@ -1424,69 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,64; 7,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>1,2; 5,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,3</t>
+          <t>11,89; 18,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,51</t>
+          <t>3,73; 9,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,1; 10,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,68</t>
+          <t>21,62; 29,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,26</t>
+          <t>3,85; 7,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,2; 29,31</t>
+          <t>3,0; 6,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 8,06</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 6,71</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>17,48; 22,64</t>
+          <t>17,5; 22,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,60 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>12,69%</t>
         </is>
@@ -1564,62 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,53; 3,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,29</t>
+          <t>2,59; 5,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,75</t>
+          <t>6,19; 10,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 10,57</t>
+          <t>6,87; 11,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>6,96; 11,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,3</t>
+          <t>8,2; 21,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,58</t>
+          <t>4,64; 7,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 21,9</t>
+          <t>5,35; 8,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>4,66; 7,51</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 8,21</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,26; 15,31</t>
+          <t>8,15; 15,34</t>
         </is>
       </c>
     </row>
@@ -1636,60 +1403,45 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>7,23%</t>
         </is>
@@ -1704,62 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,94; 2,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,88</t>
+          <t>2,06; 4,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,78</t>
+          <t>1,35; 4,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,79</t>
+          <t>5,55; 9,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,97; 12,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,29</t>
+          <t>10,6; 15,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,37</t>
+          <t>3,57; 5,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,04</t>
+          <t>5,49; 8,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 5,66</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>5,47; 8,07</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 9,04</t>
+          <t>4,51; 8,98</t>
         </is>
       </c>
     </row>
@@ -1776,60 +1513,45 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>6,11%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>10,43%</t>
         </is>
@@ -1844,62 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,91; 4,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,36</t>
+          <t>2,53; 3,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,81</t>
+          <t>5,16; 7,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,68</t>
+          <t>8,24; 10,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,94; 10,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,44</t>
+          <t>11,25; 15,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,95; 10,02</t>
+          <t>5,86; 7,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,39</t>
+          <t>5,49; 6,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 7,12</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 6,72</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 11,35</t>
+          <t>9,1; 11,33</t>
         </is>
       </c>
     </row>
@@ -1912,20 +1619,1635 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas de las que al menos una es limitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11468</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11062</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7592</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24001</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37862</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35469</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48925</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24366</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5633; 20437</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5528; 19000</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3926; 14389</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15235; 35804</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27826; 51868</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11859; 23139</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25325; 50280</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37702; 66711</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17499; 32656</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25219</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26343</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47076</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28102</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67767</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>72295</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32813</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>94110</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15647; 38510</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1737; 10530</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16947; 38345</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34566; 62574</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19330; 42193</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>56703; 80713</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56446; 91739</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22611; 48254</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78423; 112880</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9108</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34542</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27689</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17870</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55881</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36796</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22754</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>90422</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4015; 19186</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2355; 10996</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26005; 45118</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18320; 39976</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10087; 29250</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>46148; 66874</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26171; 50973</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14034; 34467</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78470; 104933</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15368</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17697</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29905</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>52198</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58078</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67566</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66039</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87983</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8477; 24102</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10486; 27728</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20554; 41776</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>40883; 68985</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>36155; 63309</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>34138; 75201</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51967; 83702</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50452; 84663</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64553; 106804</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17603</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9505</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10416</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38301</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21937</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29659</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55904</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31442</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40075</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10001; 26961</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4734; 17122</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6873; 16073</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28052; 51689</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14113; 31381</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14818; 39015</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41247; 72952</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21881; 42048</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26773; 50034</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13464</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6914</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40322</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>17592</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18096</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>64768</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31056</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25010</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>105090</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7230; 21131</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3156; 13168</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>32053; 49653</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10454; 27454</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11198; 28128</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>55588; 75572</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>21309; 43378</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16065; 36130</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>92180; 118576</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17154</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26545</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>51347</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>63069</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62839</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>135634</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>80223</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>89383</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>186981</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10123; 26050</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17015; 38494</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>38644; 65508</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>47646; 80569</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48084; 78102</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>69655; 184727</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>62976; 99868</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>72105; 110744</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>120042; 226072</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>12922</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>24771</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>30063</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>60109</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>82618</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>89033</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>73032</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>107389</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>119097</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>7340; 21253</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>16004; 36039</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12571; 45622</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>45684; 77242</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>65809; 103014</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>76102; 108592</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>57255; 91876</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>88054; 133325</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>74192; 147844</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>122307</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>106089</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>230531</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>330034</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>317665</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>517594</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>452341</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>423754</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>748125</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>99877; 145479</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>85975; 127247</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>178594; 261829</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>293090; 366377</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>281573; 356245</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>417804; 567954</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>409542; 495356</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>380773; 462015</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>652587; 812477</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>